--- a/state_results/Rivers/MangatainokaatScarboroughKoniniRd_264cb3f9f3.xlsx
+++ b/state_results/Rivers/MangatainokaatScarboroughKoniniRd_264cb3f9f3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U196"/>
+  <dimension ref="A1:U217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.58427077507227</v>
+        <v>2.58372916475046</v>
       </c>
       <c r="H2" t="n">
         <v>5.3</v>
@@ -651,7 +651,7 @@
         <v>0.004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0054514583238597</v>
+        <v>0.0054514727485043</v>
       </c>
       <c r="H3" t="n">
         <v>0.023</v>
@@ -732,7 +732,7 @@
         <v>0.004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0054514583238597</v>
+        <v>0.0054514727485043</v>
       </c>
       <c r="H4" t="n">
         <v>0.023</v>
@@ -813,7 +813,7 @@
         <v>0.00718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0078737709607214</v>
+        <v>0.007875999468649799</v>
       </c>
       <c r="H5" t="n">
         <v>0.0384615384615385</v>
@@ -894,7 +894,7 @@
         <v>0.00718</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0078737709607214</v>
+        <v>0.007875999468649799</v>
       </c>
       <c r="H6" t="n">
         <v>0.0384615384615385</v>
@@ -1133,7 +1133,7 @@
         <v>0.8110000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9510851063829791</v>
+        <v>0.951074468085106</v>
       </c>
       <c r="H9" t="n">
         <v>1.912</v>
@@ -1210,7 +1210,7 @@
         <v>0.8110000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9510851063829791</v>
+        <v>0.951074468085106</v>
       </c>
       <c r="H10" t="n">
         <v>1.912</v>
@@ -1291,7 +1291,7 @@
         <v>0.004</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0050894039228168</v>
+        <v>0.0050894227549918</v>
       </c>
       <c r="H11" t="n">
         <v>0.017</v>
@@ -1372,7 +1372,7 @@
         <v>0.004</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0050894039228168</v>
+        <v>0.0050894227549918</v>
       </c>
       <c r="H12" t="n">
         <v>0.017</v>
@@ -1453,7 +1453,7 @@
         <v>0.00719</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0076533186613588</v>
+        <v>0.0076562281022653</v>
       </c>
       <c r="H13" t="n">
         <v>0.0384615384615385</v>
@@ -1534,7 +1534,7 @@
         <v>0.00719</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0076533186613588</v>
+        <v>0.0076562281022653</v>
       </c>
       <c r="H14" t="n">
         <v>0.0384615384615385</v>
@@ -2012,7 +2012,7 @@
         <v>0.005</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0048597739554233</v>
+        <v>0.0048737601299688</v>
       </c>
       <c r="H20" t="n">
         <v>0.01</v>
@@ -2093,7 +2093,7 @@
         <v>0.005</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0048597739554233</v>
+        <v>0.0048737601299688</v>
       </c>
       <c r="H21" t="n">
         <v>0.01</v>
@@ -2174,7 +2174,7 @@
         <v>0.00249</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0054526232253086</v>
+        <v>0.0054562360371252</v>
       </c>
       <c r="H22" t="n">
         <v>0.0520948470812479</v>
@@ -2255,7 +2255,7 @@
         <v>0.00249</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0054526232253086</v>
+        <v>0.0054562360371252</v>
       </c>
       <c r="H23" t="n">
         <v>0.0520948470812479</v>
@@ -2494,7 +2494,7 @@
         <v>0.905</v>
       </c>
       <c r="G26" t="n">
-        <v>0.93469696969697</v>
+        <v>0.934712121212121</v>
       </c>
       <c r="H26" t="n">
         <v>1.982</v>
@@ -2505,7 +2505,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.8855</v>
+        <v>0.8857</v>
       </c>
       <c r="M26" t="n">
         <v>1.32325</v>
@@ -2571,7 +2571,7 @@
         <v>0.905</v>
       </c>
       <c r="G27" t="n">
-        <v>0.93469696969697</v>
+        <v>0.934712121212121</v>
       </c>
       <c r="H27" t="n">
         <v>1.982</v>
@@ -2582,7 +2582,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.8855</v>
+        <v>0.8857</v>
       </c>
       <c r="M27" t="n">
         <v>1.32325</v>
@@ -2648,7 +2648,7 @@
         <v>0.012</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0188845603002707</v>
+        <v>0.018895602710123</v>
       </c>
       <c r="H28" t="n">
         <v>0.096</v>
@@ -2725,7 +2725,7 @@
         <v>0.012</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0188845603002707</v>
+        <v>0.018895602710123</v>
       </c>
       <c r="H29" t="n">
         <v>0.096</v>
@@ -2887,7 +2887,7 @@
         <v>0.006</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0054971675673104</v>
+        <v>0.0055074240953104</v>
       </c>
       <c r="H31" t="n">
         <v>0.013</v>
@@ -2968,7 +2968,7 @@
         <v>0.006</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0054971675673104</v>
+        <v>0.0055074240953104</v>
       </c>
       <c r="H32" t="n">
         <v>0.013</v>
@@ -3049,7 +3049,7 @@
         <v>0.00233</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0049640811258448</v>
+        <v>0.0049667086253478</v>
       </c>
       <c r="H33" t="n">
         <v>0.0520948470812479</v>
@@ -3130,7 +3130,7 @@
         <v>0.00233</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0049640811258448</v>
+        <v>0.0049667086253478</v>
       </c>
       <c r="H34" t="n">
         <v>0.0520948470812479</v>
@@ -3369,7 +3369,7 @@
         <v>0.905</v>
       </c>
       <c r="G37" t="n">
-        <v>0.933266666666667</v>
+        <v>0.93326</v>
       </c>
       <c r="H37" t="n">
         <v>1.982</v>
@@ -3380,13 +3380,13 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6899</v>
       </c>
       <c r="M37" t="n">
-        <v>1.41265</v>
+        <v>1.4129</v>
       </c>
       <c r="N37" t="n">
-        <v>1.5999</v>
+        <v>1.59959</v>
       </c>
       <c r="O37" t="n">
         <v>1836993.561</v>
@@ -3446,7 +3446,7 @@
         <v>0.905</v>
       </c>
       <c r="G38" t="n">
-        <v>0.933266666666667</v>
+        <v>0.93326</v>
       </c>
       <c r="H38" t="n">
         <v>1.982</v>
@@ -3457,13 +3457,13 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6899</v>
       </c>
       <c r="M38" t="n">
-        <v>1.41265</v>
+        <v>1.4129</v>
       </c>
       <c r="N38" t="n">
-        <v>1.5999</v>
+        <v>1.59959</v>
       </c>
       <c r="O38" t="n">
         <v>1836993.561</v>
@@ -3523,7 +3523,7 @@
         <v>0.012</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0173820108868652</v>
+        <v>0.0173901086540902</v>
       </c>
       <c r="H39" t="n">
         <v>0.096</v>
@@ -3600,7 +3600,7 @@
         <v>0.012</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0173820108868652</v>
+        <v>0.0173901086540902</v>
       </c>
       <c r="H40" t="n">
         <v>0.096</v>
@@ -3762,7 +3762,7 @@
         <v>0.005</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0054784525668083</v>
+        <v>0.0054890468353814</v>
       </c>
       <c r="H42" t="n">
         <v>0.013</v>
@@ -3843,7 +3843,7 @@
         <v>0.005</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0054784525668083</v>
+        <v>0.0054890468353814</v>
       </c>
       <c r="H43" t="n">
         <v>0.013</v>
@@ -3924,7 +3924,7 @@
         <v>44</v>
       </c>
       <c r="G44" t="n">
-        <v>543.716617514665</v>
+        <v>543.71818772889</v>
       </c>
       <c r="H44" t="n">
         <v>22000</v>
@@ -4009,7 +4009,7 @@
         <v>44</v>
       </c>
       <c r="G45" t="n">
-        <v>543.716617514665</v>
+        <v>543.71818772889</v>
       </c>
       <c r="H45" t="n">
         <v>22000</v>
@@ -4094,7 +4094,7 @@
         <v>44</v>
       </c>
       <c r="G46" t="n">
-        <v>543.716617514665</v>
+        <v>543.71818772889</v>
       </c>
       <c r="H46" t="n">
         <v>22000</v>
@@ -4179,7 +4179,7 @@
         <v>44</v>
       </c>
       <c r="G47" t="n">
-        <v>543.716617514665</v>
+        <v>543.71818772889</v>
       </c>
       <c r="H47" t="n">
         <v>22000</v>
@@ -4264,7 +4264,7 @@
         <v>0.0021</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0048073108307313</v>
+        <v>0.0048115179105242</v>
       </c>
       <c r="H48" t="n">
         <v>0.0520948470812479</v>
@@ -4275,7 +4275,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.00137</v>
+        <v>0.00139</v>
       </c>
       <c r="M48" t="n">
         <v>0.00715</v>
@@ -4345,7 +4345,7 @@
         <v>0.0021</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0048073108307313</v>
+        <v>0.0048115179105242</v>
       </c>
       <c r="H49" t="n">
         <v>0.0520948470812479</v>
@@ -4356,7 +4356,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.00137</v>
+        <v>0.00139</v>
       </c>
       <c r="M49" t="n">
         <v>0.00715</v>
@@ -4581,13 +4581,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.947</v>
+        <v>0.9475</v>
       </c>
       <c r="G52" t="n">
         <v>0.992298245614035</v>
       </c>
       <c r="H52" t="n">
-        <v>2.296</v>
+        <v>2.2965</v>
       </c>
       <c r="I52" t="n">
         <v>1.72815</v>
@@ -4595,13 +4595,13 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.8155</v>
+        <v>0.8157</v>
       </c>
       <c r="M52" t="n">
         <v>1.4432</v>
       </c>
       <c r="N52" t="n">
-        <v>1.64596</v>
+        <v>1.64613</v>
       </c>
       <c r="O52" t="n">
         <v>1836993.561</v>
@@ -4658,13 +4658,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.947</v>
+        <v>0.9475</v>
       </c>
       <c r="G53" t="n">
         <v>0.992298245614035</v>
       </c>
       <c r="H53" t="n">
-        <v>2.296</v>
+        <v>2.2965</v>
       </c>
       <c r="I53" t="n">
         <v>1.72815</v>
@@ -4672,13 +4672,13 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.8155</v>
+        <v>0.8157</v>
       </c>
       <c r="M53" t="n">
         <v>1.4432</v>
       </c>
       <c r="N53" t="n">
-        <v>1.64596</v>
+        <v>1.64613</v>
       </c>
       <c r="O53" t="n">
         <v>1836993.561</v>
@@ -4892,7 +4892,7 @@
         <v>0.011</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0164945699984023</v>
+        <v>0.0165009629725274</v>
       </c>
       <c r="H56" t="n">
         <v>0.096</v>
@@ -4969,7 +4969,7 @@
         <v>0.011</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0164945699984023</v>
+        <v>0.0165009629725274</v>
       </c>
       <c r="H57" t="n">
         <v>0.096</v>
@@ -5131,7 +5131,7 @@
         <v>0.005</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0056014056179892</v>
+        <v>0.0056123858762048</v>
       </c>
       <c r="H59" t="n">
         <v>0.013</v>
@@ -5212,7 +5212,7 @@
         <v>0.005</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0056014056179892</v>
+        <v>0.0056123858762048</v>
       </c>
       <c r="H60" t="n">
         <v>0.013</v>
@@ -5293,7 +5293,7 @@
         <v>49</v>
       </c>
       <c r="G61" t="n">
-        <v>729.4641199722651</v>
+        <v>729.465611675778</v>
       </c>
       <c r="H61" t="n">
         <v>22000</v>
@@ -5378,7 +5378,7 @@
         <v>49</v>
       </c>
       <c r="G62" t="n">
-        <v>729.4641199722651</v>
+        <v>729.465611675778</v>
       </c>
       <c r="H62" t="n">
         <v>22000</v>
@@ -5463,7 +5463,7 @@
         <v>49</v>
       </c>
       <c r="G63" t="n">
-        <v>729.4641199722651</v>
+        <v>729.465611675778</v>
       </c>
       <c r="H63" t="n">
         <v>22000</v>
@@ -5548,7 +5548,7 @@
         <v>49</v>
       </c>
       <c r="G64" t="n">
-        <v>729.4641199722651</v>
+        <v>729.465611675778</v>
       </c>
       <c r="H64" t="n">
         <v>22000</v>
@@ -5630,10 +5630,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.00126</v>
+        <v>0.00129</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0043576818695449</v>
+        <v>0.004366606056934</v>
       </c>
       <c r="H65" t="n">
         <v>0.0520948470812479</v>
@@ -5644,7 +5644,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.0009</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="M65" t="n">
         <v>0.00634</v>
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.00126</v>
+        <v>0.00129</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0043576818695449</v>
+        <v>0.004366606056934</v>
       </c>
       <c r="H66" t="n">
         <v>0.0520948470812479</v>
@@ -5725,7 +5725,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.0009</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="M66" t="n">
         <v>0.00634</v>
@@ -5950,13 +5950,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.009</v>
+        <v>1.0089</v>
       </c>
       <c r="G69" t="n">
         <v>1.01468333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>2.296</v>
+        <v>2.2965</v>
       </c>
       <c r="I69" t="n">
         <v>1.834</v>
@@ -5964,13 +5964,13 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.8155</v>
+        <v>0.8157</v>
       </c>
       <c r="M69" t="n">
         <v>1.4456</v>
       </c>
       <c r="N69" t="n">
-        <v>1.6378</v>
+        <v>1.63785</v>
       </c>
       <c r="O69" t="n">
         <v>1836993.561</v>
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.009</v>
+        <v>1.0089</v>
       </c>
       <c r="G70" t="n">
         <v>1.01468333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>2.296</v>
+        <v>2.2965</v>
       </c>
       <c r="I70" t="n">
         <v>1.834</v>
@@ -6041,13 +6041,13 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.8155</v>
+        <v>0.8157</v>
       </c>
       <c r="M70" t="n">
         <v>1.4456</v>
       </c>
       <c r="N70" t="n">
-        <v>1.6378</v>
+        <v>1.63785</v>
       </c>
       <c r="O70" t="n">
         <v>1836993.561</v>
@@ -6261,7 +6261,7 @@
         <v>0.011</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0160198414984822</v>
+        <v>0.016025914823901</v>
       </c>
       <c r="H73" t="n">
         <v>0.096</v>
@@ -6338,7 +6338,7 @@
         <v>0.011</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0160198414984822</v>
+        <v>0.016025914823901</v>
       </c>
       <c r="H74" t="n">
         <v>0.096</v>
@@ -6500,7 +6500,7 @@
         <v>0.006</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0058928905466598</v>
+        <v>0.0059019299620604</v>
       </c>
       <c r="H76" t="n">
         <v>0.013</v>
@@ -6581,7 +6581,7 @@
         <v>0.006</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0058928905466598</v>
+        <v>0.0059019299620604</v>
       </c>
       <c r="H77" t="n">
         <v>0.013</v>
@@ -6662,7 +6662,7 @@
         <v>56</v>
       </c>
       <c r="G78" t="n">
-        <v>407.680786638932</v>
+        <v>407.682278342445</v>
       </c>
       <c r="H78" t="n">
         <v>13000</v>
@@ -6747,7 +6747,7 @@
         <v>56</v>
       </c>
       <c r="G79" t="n">
-        <v>407.680786638932</v>
+        <v>407.682278342445</v>
       </c>
       <c r="H79" t="n">
         <v>13000</v>
@@ -6832,7 +6832,7 @@
         <v>56</v>
       </c>
       <c r="G80" t="n">
-        <v>407.680786638932</v>
+        <v>407.682278342445</v>
       </c>
       <c r="H80" t="n">
         <v>13000</v>
@@ -6917,7 +6917,7 @@
         <v>56</v>
       </c>
       <c r="G81" t="n">
-        <v>407.680786638932</v>
+        <v>407.682278342445</v>
       </c>
       <c r="H81" t="n">
         <v>13000</v>
@@ -6999,10 +6999,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.00126</v>
+        <v>0.00129</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0028063826846712</v>
+        <v>0.0028227705248325</v>
       </c>
       <c r="H82" t="n">
         <v>0.0191121380301358</v>
@@ -7013,7 +7013,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.00109</v>
+        <v>0.00112</v>
       </c>
       <c r="M82" t="n">
         <v>0.00442</v>
@@ -7080,10 +7080,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.00126</v>
+        <v>0.00129</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0028063826846712</v>
+        <v>0.0028227705248325</v>
       </c>
       <c r="H83" t="n">
         <v>0.0191121380301358</v>
@@ -7094,7 +7094,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.00109</v>
+        <v>0.00112</v>
       </c>
       <c r="M83" t="n">
         <v>0.00442</v>
@@ -7319,27 +7319,27 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.009</v>
+        <v>1.0089</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9934333333333329</v>
+        <v>0.993431666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>2.296</v>
+        <v>2.2965</v>
       </c>
       <c r="I86" t="n">
-        <v>1.6965</v>
+        <v>1.6966</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.6645</v>
+        <v>0.6643</v>
       </c>
       <c r="M86" t="n">
-        <v>1.4317</v>
+        <v>1.43191</v>
       </c>
       <c r="N86" t="n">
-        <v>1.6092</v>
+        <v>1.60899</v>
       </c>
       <c r="O86" t="n">
         <v>1836993.561</v>
@@ -7396,27 +7396,27 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.009</v>
+        <v>1.0089</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9934333333333329</v>
+        <v>0.993431666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>2.296</v>
+        <v>2.2965</v>
       </c>
       <c r="I87" t="n">
-        <v>1.6965</v>
+        <v>1.6966</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.6645</v>
+        <v>0.6643</v>
       </c>
       <c r="M87" t="n">
-        <v>1.4317</v>
+        <v>1.43191</v>
       </c>
       <c r="N87" t="n">
-        <v>1.6092</v>
+        <v>1.60899</v>
       </c>
       <c r="O87" t="n">
         <v>1836993.561</v>
@@ -8027,7 +8027,7 @@
         <v>0.006</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0057430404932547</v>
+        <v>0.0057558726618743</v>
       </c>
       <c r="H95" t="n">
         <v>0.013</v>
@@ -8108,7 +8108,7 @@
         <v>0.006</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0057430404932547</v>
+        <v>0.0057558726618743</v>
       </c>
       <c r="H96" t="n">
         <v>0.013</v>
@@ -8189,7 +8189,7 @@
         <v>93</v>
       </c>
       <c r="G97" t="n">
-        <v>667.897453305598</v>
+        <v>667.898945009112</v>
       </c>
       <c r="H97" t="n">
         <v>13000</v>
@@ -8274,7 +8274,7 @@
         <v>93</v>
       </c>
       <c r="G98" t="n">
-        <v>667.897453305598</v>
+        <v>667.898945009112</v>
       </c>
       <c r="H98" t="n">
         <v>13000</v>
@@ -8359,7 +8359,7 @@
         <v>93</v>
       </c>
       <c r="G99" t="n">
-        <v>667.897453305598</v>
+        <v>667.898945009112</v>
       </c>
       <c r="H99" t="n">
         <v>13000</v>
@@ -8444,7 +8444,7 @@
         <v>93</v>
       </c>
       <c r="G100" t="n">
-        <v>667.897453305598</v>
+        <v>667.898945009112</v>
       </c>
       <c r="H100" t="n">
         <v>13000</v>
@@ -8603,10 +8603,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.00168</v>
+        <v>0.00172</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0026420588663751</v>
+        <v>0.0026675832916307</v>
       </c>
       <c r="H102" t="n">
         <v>0.0191121380301358</v>
@@ -8617,10 +8617,10 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00169</v>
+        <v>0.00173</v>
       </c>
       <c r="M102" t="n">
-        <v>0.00272</v>
+        <v>0.00276</v>
       </c>
       <c r="N102" t="n">
         <v>0.00615</v>
@@ -8684,10 +8684,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.00168</v>
+        <v>0.00172</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0026420588663751</v>
+        <v>0.0026675832916307</v>
       </c>
       <c r="H103" t="n">
         <v>0.0191121380301358</v>
@@ -8698,10 +8698,10 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.00169</v>
+        <v>0.00173</v>
       </c>
       <c r="M103" t="n">
-        <v>0.00272</v>
+        <v>0.00276</v>
       </c>
       <c r="N103" t="n">
         <v>0.00615</v>
@@ -9003,13 +9003,13 @@
         <v>1.012</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9716</v>
+        <v>0.971591666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>2.296</v>
+        <v>2.2965</v>
       </c>
       <c r="I107" t="n">
-        <v>1.6965</v>
+        <v>1.6966</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -9020,7 +9020,7 @@
         <v>1.438</v>
       </c>
       <c r="N107" t="n">
-        <v>1.6092</v>
+        <v>1.60899</v>
       </c>
       <c r="O107" t="n">
         <v>1836993.561</v>
@@ -9080,13 +9080,13 @@
         <v>1.012</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9716</v>
+        <v>0.971591666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>2.296</v>
+        <v>2.2965</v>
       </c>
       <c r="I108" t="n">
-        <v>1.6965</v>
+        <v>1.6966</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1.438</v>
       </c>
       <c r="N108" t="n">
-        <v>1.6092</v>
+        <v>1.60899</v>
       </c>
       <c r="O108" t="n">
         <v>1836993.561</v>
@@ -9627,7 +9627,7 @@
         <v>2.415</v>
       </c>
       <c r="G115" t="n">
-        <v>2.392092355171</v>
+        <v>2.38798628191059</v>
       </c>
       <c r="H115" t="n">
         <v>5.3</v>
@@ -9641,7 +9641,7 @@
         <v>2.45</v>
       </c>
       <c r="M115" t="n">
-        <v>4.04859</v>
+        <v>3.9878</v>
       </c>
       <c r="N115" t="n">
         <v>4.7</v>
@@ -9708,7 +9708,7 @@
         <v>0.005</v>
       </c>
       <c r="G116" t="n">
-        <v>0.005400618262418</v>
+        <v>0.0054183867980114</v>
       </c>
       <c r="H116" t="n">
         <v>0.011</v>
@@ -9719,7 +9719,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.00393</v>
+        <v>0.00399</v>
       </c>
       <c r="M116" t="n">
         <v>0.007</v>
@@ -9789,7 +9789,7 @@
         <v>0.005</v>
       </c>
       <c r="G117" t="n">
-        <v>0.005400618262418</v>
+        <v>0.0054183867980114</v>
       </c>
       <c r="H117" t="n">
         <v>0.011</v>
@@ -9800,7 +9800,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.00393</v>
+        <v>0.00399</v>
       </c>
       <c r="M117" t="n">
         <v>0.007</v>
@@ -9870,7 +9870,7 @@
         <v>104</v>
       </c>
       <c r="G118" t="n">
-        <v>684.6974533055979</v>
+        <v>684.698945009112</v>
       </c>
       <c r="H118" t="n">
         <v>13000</v>
@@ -9955,7 +9955,7 @@
         <v>104</v>
       </c>
       <c r="G119" t="n">
-        <v>684.6974533055979</v>
+        <v>684.698945009112</v>
       </c>
       <c r="H119" t="n">
         <v>13000</v>
@@ -10040,7 +10040,7 @@
         <v>104</v>
       </c>
       <c r="G120" t="n">
-        <v>684.6974533055979</v>
+        <v>684.698945009112</v>
       </c>
       <c r="H120" t="n">
         <v>13000</v>
@@ -10125,7 +10125,7 @@
         <v>104</v>
       </c>
       <c r="G121" t="n">
-        <v>684.6974533055979</v>
+        <v>684.698945009112</v>
       </c>
       <c r="H121" t="n">
         <v>13000</v>
@@ -10284,27 +10284,27 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.00173</v>
+        <v>0.00177</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0026850350196478</v>
+        <v>0.0027229372430887</v>
       </c>
       <c r="H123" t="n">
         <v>0.0174996312982612</v>
       </c>
       <c r="I123" t="n">
-        <v>0.00861</v>
+        <v>0.00864</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00178</v>
+        <v>0.00182</v>
       </c>
       <c r="M123" t="n">
-        <v>0.00416</v>
+        <v>0.00422</v>
       </c>
       <c r="N123" t="n">
-        <v>0.00605</v>
+        <v>0.00614</v>
       </c>
       <c r="O123" t="n">
         <v>1836993.561</v>
@@ -10365,27 +10365,27 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.00173</v>
+        <v>0.00177</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0026850350196478</v>
+        <v>0.0027229372430887</v>
       </c>
       <c r="H124" t="n">
         <v>0.0174996312982612</v>
       </c>
       <c r="I124" t="n">
-        <v>0.00861</v>
+        <v>0.00864</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.00178</v>
+        <v>0.00182</v>
       </c>
       <c r="M124" t="n">
-        <v>0.00416</v>
+        <v>0.00422</v>
       </c>
       <c r="N124" t="n">
-        <v>0.00605</v>
+        <v>0.00614</v>
       </c>
       <c r="O124" t="n">
         <v>1836993.561</v>
@@ -10684,13 +10684,13 @@
         <v>0.985</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9470666666666669</v>
+        <v>0.947071666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>2.296</v>
+        <v>2.2965</v>
       </c>
       <c r="I128" t="n">
-        <v>1.6965</v>
+        <v>1.6966</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -10761,13 +10761,13 @@
         <v>0.985</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9470666666666669</v>
+        <v>0.947071666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>2.296</v>
+        <v>2.2965</v>
       </c>
       <c r="I129" t="n">
-        <v>1.6965</v>
+        <v>1.6966</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>1.8</v>
       </c>
       <c r="G136" t="n">
-        <v>2.2369000474787</v>
+        <v>2.23279397421828</v>
       </c>
       <c r="H136" t="n">
         <v>5.3</v>
@@ -11322,7 +11322,7 @@
         <v>2.1</v>
       </c>
       <c r="M136" t="n">
-        <v>4.04859</v>
+        <v>3.9878</v>
       </c>
       <c r="N136" t="n">
         <v>4.7</v>
@@ -11389,7 +11389,7 @@
         <v>0.005</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0050023362706098</v>
+        <v>0.0050179936025918</v>
       </c>
       <c r="H137" t="n">
         <v>0.01</v>
@@ -11400,7 +11400,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>0.00369</v>
+        <v>0.00375</v>
       </c>
       <c r="M137" t="n">
         <v>0.007</v>
@@ -11470,7 +11470,7 @@
         <v>0.005</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0050023362706098</v>
+        <v>0.0050179936025918</v>
       </c>
       <c r="H138" t="n">
         <v>0.01</v>
@@ -11481,7 +11481,7 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>0.00369</v>
+        <v>0.00375</v>
       </c>
       <c r="M138" t="n">
         <v>0.007</v>
@@ -11965,27 +11965,27 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.00188</v>
+        <v>0.00192</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0023361240539471</v>
+        <v>0.002373299218892</v>
       </c>
       <c r="H144" t="n">
         <v>0.0071144015454692</v>
       </c>
       <c r="I144" t="n">
-        <v>0.00591</v>
+        <v>0.00598</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.00194</v>
+        <v>0.00198</v>
       </c>
       <c r="M144" t="n">
-        <v>0.00363</v>
+        <v>0.00369</v>
       </c>
       <c r="N144" t="n">
-        <v>0.00515</v>
+        <v>0.00523</v>
       </c>
       <c r="O144" t="n">
         <v>1836993.561</v>
@@ -12046,27 +12046,27 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.00188</v>
+        <v>0.00192</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0023361240539471</v>
+        <v>0.002373299218892</v>
       </c>
       <c r="H145" t="n">
         <v>0.0071144015454692</v>
       </c>
       <c r="I145" t="n">
-        <v>0.00591</v>
+        <v>0.00598</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.00194</v>
+        <v>0.00198</v>
       </c>
       <c r="M145" t="n">
-        <v>0.00363</v>
+        <v>0.00369</v>
       </c>
       <c r="N145" t="n">
-        <v>0.00515</v>
+        <v>0.00523</v>
       </c>
       <c r="O145" t="n">
         <v>1836993.561</v>
@@ -12989,7 +12989,7 @@
         <v>1.7</v>
       </c>
       <c r="G157" t="n">
-        <v>1.94040005252962</v>
+        <v>1.9358571629649</v>
       </c>
       <c r="H157" t="n">
         <v>4.9</v>
@@ -13070,7 +13070,7 @@
         <v>0.005</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0049047055337767</v>
+        <v>0.0049161341317309</v>
       </c>
       <c r="H158" t="n">
         <v>0.01</v>
@@ -13081,7 +13081,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>0.00385</v>
+        <v>0.00391</v>
       </c>
       <c r="M158" t="n">
         <v>0.007</v>
@@ -13151,7 +13151,7 @@
         <v>0.005</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0049047055337767</v>
+        <v>0.0049161341317309</v>
       </c>
       <c r="H159" t="n">
         <v>0.01</v>
@@ -13162,7 +13162,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.00385</v>
+        <v>0.00391</v>
       </c>
       <c r="M159" t="n">
         <v>0.007</v>
@@ -13649,24 +13649,24 @@
         <v>0.00211</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0029414581230399</v>
+        <v>0.0029718736860553</v>
       </c>
       <c r="H165" t="n">
         <v>0.0152849098441309</v>
       </c>
       <c r="I165" t="n">
-        <v>0.00692</v>
+        <v>0.00694</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00206</v>
+        <v>0.00208</v>
       </c>
       <c r="M165" t="n">
-        <v>0.00417</v>
+        <v>0.00424</v>
       </c>
       <c r="N165" t="n">
-        <v>0.00606</v>
+        <v>0.00616</v>
       </c>
       <c r="O165" t="n">
         <v>1836993.561</v>
@@ -13730,24 +13730,24 @@
         <v>0.00211</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0029414581230399</v>
+        <v>0.0029718736860553</v>
       </c>
       <c r="H166" t="n">
         <v>0.0152849098441309</v>
       </c>
       <c r="I166" t="n">
-        <v>0.00692</v>
+        <v>0.00694</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>0.00206</v>
+        <v>0.00208</v>
       </c>
       <c r="M166" t="n">
-        <v>0.00417</v>
+        <v>0.00424</v>
       </c>
       <c r="N166" t="n">
-        <v>0.00606</v>
+        <v>0.00616</v>
       </c>
       <c r="O166" t="n">
         <v>1836993.561</v>
@@ -14046,7 +14046,7 @@
         <v>0.699</v>
       </c>
       <c r="G170" t="n">
-        <v>0.775186440677966</v>
+        <v>0.775169491525424</v>
       </c>
       <c r="H170" t="n">
         <v>1.745</v>
@@ -14123,7 +14123,7 @@
         <v>0.699</v>
       </c>
       <c r="G171" t="n">
-        <v>0.775186440677966</v>
+        <v>0.775169491525424</v>
       </c>
       <c r="H171" t="n">
         <v>1.745</v>
@@ -14670,7 +14670,7 @@
         <v>1.5</v>
       </c>
       <c r="G178" t="n">
-        <v>1.68240519151006</v>
+        <v>1.67693042716283</v>
       </c>
       <c r="H178" t="n">
         <v>4.9</v>
@@ -14751,7 +14751,7 @@
         <v>0.005</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0055581330426418</v>
+        <v>0.0055677933304884</v>
       </c>
       <c r="H179" t="n">
         <v>0.02</v>
@@ -14762,7 +14762,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.00393</v>
+        <v>0.00397</v>
       </c>
       <c r="M179" t="n">
         <v>0.00847</v>
@@ -14832,7 +14832,7 @@
         <v>0.005</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0055581330426418</v>
+        <v>0.0055677933304884</v>
       </c>
       <c r="H180" t="n">
         <v>0.02</v>
@@ -14843,7 +14843,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>0.00393</v>
+        <v>0.00397</v>
       </c>
       <c r="M180" t="n">
         <v>0.00847</v>
@@ -14913,7 +14913,7 @@
         <v>170</v>
       </c>
       <c r="G181" t="n">
-        <v>1864.56546600268</v>
+        <v>1864.56756409145</v>
       </c>
       <c r="H181" t="n">
         <v>39000</v>
@@ -14998,7 +14998,7 @@
         <v>170</v>
       </c>
       <c r="G182" t="n">
-        <v>1864.56546600268</v>
+        <v>1864.56756409145</v>
       </c>
       <c r="H182" t="n">
         <v>39000</v>
@@ -15083,7 +15083,7 @@
         <v>170</v>
       </c>
       <c r="G183" t="n">
-        <v>1864.56546600268</v>
+        <v>1864.56756409145</v>
       </c>
       <c r="H183" t="n">
         <v>39000</v>
@@ -15168,7 +15168,7 @@
         <v>170</v>
       </c>
       <c r="G184" t="n">
-        <v>1864.56546600268</v>
+        <v>1864.56756409145</v>
       </c>
       <c r="H184" t="n">
         <v>39000</v>
@@ -15327,10 +15327,10 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.00251</v>
+        <v>0.00255</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0037682614252183</v>
+        <v>0.0037893567133832</v>
       </c>
       <c r="H186" t="n">
         <v>0.0152849098441309</v>
@@ -15341,10 +15341,10 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.00224</v>
+        <v>0.00226</v>
       </c>
       <c r="M186" t="n">
-        <v>0.00566</v>
+        <v>0.00569</v>
       </c>
       <c r="N186" t="n">
         <v>0.009639999999999999</v>
@@ -15408,10 +15408,10 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.00251</v>
+        <v>0.00255</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0037682614252183</v>
+        <v>0.0037893567133832</v>
       </c>
       <c r="H187" t="n">
         <v>0.0152849098441309</v>
@@ -15422,10 +15422,10 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
-        <v>0.00224</v>
+        <v>0.00226</v>
       </c>
       <c r="M187" t="n">
-        <v>0.00566</v>
+        <v>0.00569</v>
       </c>
       <c r="N187" t="n">
         <v>0.009639999999999999</v>
@@ -15738,10 +15738,10 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.633</v>
+        <v>0.63275</v>
       </c>
       <c r="M191" t="n">
-        <v>1.16252</v>
+        <v>1.16228</v>
       </c>
       <c r="N191" t="n">
         <v>1.40294</v>
@@ -15815,10 +15815,10 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.633</v>
+        <v>0.63275</v>
       </c>
       <c r="M192" t="n">
-        <v>1.16252</v>
+        <v>1.16228</v>
       </c>
       <c r="N192" t="n">
         <v>1.40294</v>
@@ -16163,6 +16163,1687 @@
         </is>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.43975</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>15</v>
+      </c>
+      <c r="G198" t="n">
+        <v>31.5182926829268</v>
+      </c>
+      <c r="H198" t="n">
+        <v>365</v>
+      </c>
+      <c r="I198" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="M198" t="n">
+        <v>47.295</v>
+      </c>
+      <c r="N198" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2.02557961883858</v>
+      </c>
+      <c r="H199" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I199" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M199" t="n">
+        <v>4.237</v>
+      </c>
+      <c r="N199" t="n">
+        <v>4.814</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.0054873025113259</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.0054873025113259</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>179</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1675.68620815924</v>
+      </c>
+      <c r="H202" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I202" t="n">
+        <v>9690.1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K202" t="n">
+        <v>40.6779661016949</v>
+      </c>
+      <c r="L202" t="n">
+        <v>180</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1300.94</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4826</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>179</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1675.68620815924</v>
+      </c>
+      <c r="H203" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I203" t="n">
+        <v>9690.1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K203" t="n">
+        <v>40.6779661016949</v>
+      </c>
+      <c r="L203" t="n">
+        <v>180</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1300.94</v>
+      </c>
+      <c r="N203" t="n">
+        <v>4826</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>179</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1675.68620815924</v>
+      </c>
+      <c r="H204" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I204" t="n">
+        <v>9690.1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K204" t="n">
+        <v>40.6779661016949</v>
+      </c>
+      <c r="L204" t="n">
+        <v>180</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1300.94</v>
+      </c>
+      <c r="N204" t="n">
+        <v>4826</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>179</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1675.68620815924</v>
+      </c>
+      <c r="H205" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I205" t="n">
+        <v>9690.1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K205" t="n">
+        <v>40.6779661016949</v>
+      </c>
+      <c r="L205" t="n">
+        <v>180</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1300.94</v>
+      </c>
+      <c r="N205" t="n">
+        <v>4826</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>96</v>
+      </c>
+      <c r="G206" t="n">
+        <v>95.77</v>
+      </c>
+      <c r="H206" t="n">
+        <v>111</v>
+      </c>
+      <c r="I206" t="n">
+        <v>111</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>96</v>
+      </c>
+      <c r="M206" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>111</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P206" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.00352</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.0041543076752297</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.0152849098441309</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.01342</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.00713</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.01055</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.00352</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.0041543076752297</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.0152849098441309</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.01342</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.00713</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.01055</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.7379661016949151</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1.1541</v>
+      </c>
+      <c r="N209" t="n">
+        <v>1.3668</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.7379661016949151</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1.1541</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1.3668</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>5.352</v>
+      </c>
+      <c r="G211" t="n">
+        <v>5.4982</v>
+      </c>
+      <c r="H211" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I211" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>5.352</v>
+      </c>
+      <c r="M211" t="n">
+        <v>6.2215</v>
+      </c>
+      <c r="N211" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.750313559322034</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1.43385</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>0.63275</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1.1546</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1.37136</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.750313559322034</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1.43385</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0.63275</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1.1546</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1.37136</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.8966101694915251</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1.511</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1.2141</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1.4356</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.8966101694915251</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1.511</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1.2141</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1.4356</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.0309830508474576</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.14495</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.04811</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.13196</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Scarborough Konini Rd</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.0309830508474576</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.14495</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.04811</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.13196</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1836993.561</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5515692.163</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangatainokaatScarboroughKoniniRd_264cb3f9f3.xlsx
+++ b/state_results/Rivers/MangatainokaatScarboroughKoniniRd_264cb3f9f3.xlsx
@@ -9627,13 +9627,13 @@
         <v>2.415</v>
       </c>
       <c r="G115" t="n">
-        <v>2.38798628191059</v>
+        <v>2.42194053371456</v>
       </c>
       <c r="H115" t="n">
-        <v>5.3</v>
+        <v>5.50090775315703</v>
       </c>
       <c r="I115" t="n">
-        <v>4.97</v>
+        <v>5</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -9641,10 +9641,10 @@
         <v>2.45</v>
       </c>
       <c r="M115" t="n">
-        <v>3.9878</v>
+        <v>4.1396</v>
       </c>
       <c r="N115" t="n">
-        <v>4.7</v>
+        <v>4.802</v>
       </c>
       <c r="O115" t="n">
         <v>1836993.561</v>
@@ -11308,13 +11308,13 @@
         <v>1.8</v>
       </c>
       <c r="G136" t="n">
-        <v>2.23279397421828</v>
+        <v>2.26674822602225</v>
       </c>
       <c r="H136" t="n">
-        <v>5.3</v>
+        <v>5.50090775315703</v>
       </c>
       <c r="I136" t="n">
-        <v>4.88</v>
+        <v>4.99</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -11322,10 +11322,10 @@
         <v>2.1</v>
       </c>
       <c r="M136" t="n">
-        <v>3.9878</v>
+        <v>4.1396</v>
       </c>
       <c r="N136" t="n">
-        <v>4.7</v>
+        <v>4.768</v>
       </c>
       <c r="O136" t="n">
         <v>1836993.561</v>
@@ -12989,13 +12989,13 @@
         <v>1.7</v>
       </c>
       <c r="G157" t="n">
-        <v>1.9358571629649</v>
+        <v>1.97342356921611</v>
       </c>
       <c r="H157" t="n">
-        <v>4.9</v>
+        <v>5.50090775315703</v>
       </c>
       <c r="I157" t="n">
-        <v>4.7</v>
+        <v>4.73</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -13006,7 +13006,7 @@
         <v>3.354</v>
       </c>
       <c r="N157" t="n">
-        <v>4.3968</v>
+        <v>4.6428</v>
       </c>
       <c r="O157" t="n">
         <v>1836993.561</v>
@@ -14670,13 +14670,13 @@
         <v>1.5</v>
       </c>
       <c r="G178" t="n">
-        <v>1.67693042716283</v>
+        <v>1.72220276290146</v>
       </c>
       <c r="H178" t="n">
-        <v>4.9</v>
+        <v>5.50090775315703</v>
       </c>
       <c r="I178" t="n">
-        <v>4.601</v>
+        <v>4.81</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -14687,7 +14687,7 @@
         <v>3.1</v>
       </c>
       <c r="N178" t="n">
-        <v>4.2816</v>
+        <v>4.5636</v>
       </c>
       <c r="O178" t="n">
         <v>1836993.561</v>
@@ -16351,13 +16351,13 @@
         <v>1.65</v>
       </c>
       <c r="G199" t="n">
-        <v>2.02557961883858</v>
+        <v>2.07602593580449</v>
       </c>
       <c r="H199" t="n">
         <v>6.6</v>
       </c>
       <c r="I199" t="n">
-        <v>4.88</v>
+        <v>5.35068</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -16365,10 +16365,10 @@
         <v>1.8</v>
       </c>
       <c r="M199" t="n">
-        <v>4.237</v>
+        <v>4.399</v>
       </c>
       <c r="N199" t="n">
-        <v>4.814</v>
+        <v>4.876</v>
       </c>
       <c r="O199" t="n">
         <v>1836993.561</v>
